--- a/01_input/transfermarkt_links.xlsx
+++ b/01_input/transfermarkt_links.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosta/Documents/01_HSLU/03.Semester/Analysis_of_social_interactions/Group/Github_AMS/social_analysis_football_transfer/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245E341E-2273-3A48-B80F-36E9B724E10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE9530-BDAF-C64B-8CFE-6223F40C3BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{0E273341-BA89-F747-9611-C6CCA8E29A48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{0E273341-BA89-F747-9611-C6CCA8E29A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="412">
   <si>
     <t>Basel</t>
   </si>
@@ -274,6 +275,1002 @@
   </si>
   <si>
     <t>'https://www.transfermarkt.de/fc-basel-1893/alletransfers/verein/26,''https://www.transfermarkt.de/fc-zurich/alletransfers/verein/260,''https://www.transfermarkt.de/bsc-young-boys/alletransfers/verein/452,''https://www.transfermarkt.de/fc-sion/alletransfers/verein/321,''https://www.transfermarkt.de/fc-thun/alletransfers/verein/938,''https://www.transfermarkt.de/fc-luzern/alletransfers/verein/434,''https://www.transfermarkt.de/grasshopper-club-zurich/alletransfers/verein/504,''https://www.transfermarkt.de/neuchatel-xamax-fcs/alletransfers/verein/9084,''https://www.transfermarkt.de/ac-bellinzona/alletransfers/verein/2047,''https://www.transfermarkt.de/fc-st-gallen/alletransfers/verein/257,''https://www.transfermarkt.de/fc-lausanne-sport/alletransfers/verein/527,''https://www.transfermarkt.de/servette-fc/alletransfers/verein/61,''https://www.transfermarkt.de/fc-aarau/alletransfers/verein/116,''https://www.transfermarkt.de/fc-vaduz/alletransfers/verein/163,''https://www.transfermarkt.de/fc-lugano/alletransfers/verein/2790'</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>FC Crotone</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>US Sassuolo</t>
+  </si>
+  <si>
+    <t>Vereinslos</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Sloboda Tuzla</t>
+  </si>
+  <si>
+    <t>Bosnia-Herzegovina</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Coritiba FC U20</t>
+  </si>
+  <si>
+    <t>BATE Borisov</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>AC Perugia</t>
+  </si>
+  <si>
+    <t>FC Fribourg</t>
+  </si>
+  <si>
+    <t>Belenenses SAD</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>FC Wohlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanremese </t>
+  </si>
+  <si>
+    <t>Metalac</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Akhisar Belediye</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Zeljeznicar</t>
+  </si>
+  <si>
+    <t>Kalmar FF</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>TSV Hartberg</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>RC Lens</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FC Granada</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>FK Ufa</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>KFC Uerdingen</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>USC Paloma</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>HN Jianye</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>AJ Auxerre</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>FC Corcelles</t>
+  </si>
+  <si>
+    <t>Rudar Prijedor</t>
+  </si>
+  <si>
+    <t>Giulianova</t>
+  </si>
+  <si>
+    <t>Olginatese</t>
+  </si>
+  <si>
+    <t>Frosinone Calc.</t>
+  </si>
+  <si>
+    <t>APOEL Nikosia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Hallescher FC</t>
+  </si>
+  <si>
+    <t>Novara Calcio</t>
+  </si>
+  <si>
+    <t>M. Petah Tikva</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Anzio</t>
+  </si>
+  <si>
+    <t>Saint-√âtienne B</t>
+  </si>
+  <si>
+    <t>Pro Vercelli</t>
+  </si>
+  <si>
+    <t>NK Ankaran</t>
+  </si>
+  <si>
+    <t>Western Sydney</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Wigan U23</t>
+  </si>
+  <si>
+    <t>ASEC Mimosas</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Grasshoppers</t>
+  </si>
+  <si>
+    <t>Vestsjaelland</t>
+  </si>
+  <si>
+    <t>Dynamo Kiew</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Nea Salamis</t>
+  </si>
+  <si>
+    <t>Hoffenheim II</t>
+  </si>
+  <si>
+    <t>Sliema Wander.</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cracovia </t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Inter Baku</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>ES Troyes AC</t>
+  </si>
+  <si>
+    <t>Boavista Porto</t>
+  </si>
+  <si>
+    <t>AS Novazzano</t>
+  </si>
+  <si>
+    <t>Etoile Filante</t>
+  </si>
+  <si>
+    <t>SC Cham</t>
+  </si>
+  <si>
+    <t>FC Lugano U21</t>
+  </si>
+  <si>
+    <t>Ajax Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
+    <t>FC Postojna</t>
+  </si>
+  <si>
+    <t>FC D√ºrrenast</t>
+  </si>
+  <si>
+    <t>Benfica U23</t>
+  </si>
+  <si>
+    <t>BSK Borca</t>
+  </si>
+  <si>
+    <t>Fr√©jus-St-Raph.</t>
+  </si>
+  <si>
+    <t>Pianese</t>
+  </si>
+  <si>
+    <t>LB Ch√¢teauroux</t>
+  </si>
+  <si>
+    <t>FC Voluntari</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>AS Pikine</t>
+  </si>
+  <si>
+    <t>Zaglebie Lubin</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Atalanta U19</t>
+  </si>
+  <si>
+    <t>Real Saragossa</t>
+  </si>
+  <si>
+    <t>FC Heartland</t>
+  </si>
+  <si>
+    <t>VfB Auerbach</t>
+  </si>
+  <si>
+    <t>Mosta FC</t>
+  </si>
+  <si>
+    <t>Miedz Legnica</t>
+  </si>
+  <si>
+    <t>West Ham U23</t>
+  </si>
+  <si>
+    <t>Wehen Wiesbaden</t>
+  </si>
+  <si>
+    <t>Le Mont LS</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>TSG Hoffenheim</t>
+  </si>
+  <si>
+    <t>FC Serri√®res</t>
+  </si>
+  <si>
+    <t>Esbjerg fB</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Xamax II</t>
+  </si>
+  <si>
+    <t>1.FC K'lautern</t>
+  </si>
+  <si>
+    <t>SO Cholet</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>FC Sursee</t>
+  </si>
+  <si>
+    <t>LOSC Lille</t>
+  </si>
+  <si>
+    <t>Fluminense U20</t>
+  </si>
+  <si>
+    <t>Parma Calcio</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Suwon Bluewings</t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>Irapuato</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Tricordiano-MG</t>
+  </si>
+  <si>
+    <t>Vaduz II</t>
+  </si>
+  <si>
+    <t>Atl√©tico-GO</t>
+  </si>
+  <si>
+    <t>RFS</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Waasl.-Beveren</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Yangon Utd.</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>AS Monaco B</t>
+  </si>
+  <si>
+    <t>CD Legan√©s</t>
+  </si>
+  <si>
+    <t>Schweinfurt 05</t>
+  </si>
+  <si>
+    <t>Stade Rennes</t>
+  </si>
+  <si>
+    <t>Stand. L√ºttich</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>FC Sierre</t>
+  </si>
+  <si>
+    <t>Monte Azul-SP</t>
+  </si>
+  <si>
+    <t>AEK Larnaka</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Rabotn. Skopje</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Honv√©d</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>S√£o Carlos</t>
+  </si>
+  <si>
+    <t>B. M√ºnchen II</t>
+  </si>
+  <si>
+    <t>AS Cittadella</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Team Vaud U21</t>
+  </si>
+  <si>
+    <t>JS Suning</t>
+  </si>
+  <si>
+    <t>MZ Hakka</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Dundee FC</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>AS Livorno</t>
+  </si>
+  <si>
+    <t>FC Konolfingen</t>
+  </si>
+  <si>
+    <t>FC Monthey</t>
+  </si>
+  <si>
+    <t>MFM FC</t>
+  </si>
+  <si>
+    <t>Platanias</t>
+  </si>
+  <si>
+    <t>Panionios</t>
+  </si>
+  <si>
+    <t>Hansa Rostock</t>
+  </si>
+  <si>
+    <t>AC Bellinzona U18</t>
+  </si>
+  <si>
+    <t>Quakes</t>
+  </si>
+  <si>
+    <t>Beerschot V.A.</t>
+  </si>
+  <si>
+    <t>WSG Tirol</t>
+  </si>
+  <si>
+    <t>Ermis Aradippou</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>FK Partizani</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Rio Ave FC</t>
+  </si>
+  <si>
+    <t>Mersin IY</t>
+  </si>
+  <si>
+    <t>FC Echallens</t>
+  </si>
+  <si>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
+    <t>FC Vaduz U18</t>
+  </si>
+  <si>
+    <t>Arm. Bielefeld</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>KF Vllaznia</t>
+  </si>
+  <si>
+    <t>FC Emmenbr√ºcke</t>
+  </si>
+  <si>
+    <t>Omonia Nikosia</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Stallion FC</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Schwamendingen</t>
+  </si>
+  <si>
+    <t>Team Vaud U16</t>
+  </si>
+  <si>
+    <t>BB Erzurumspor</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Al-Fateh</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>FC Utrecht</t>
+  </si>
+  <si>
+    <t>OFK Belgrad U19</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>KSC Lokeren</t>
+  </si>
+  <si>
+    <t>Fortaleza EC B</t>
+  </si>
+  <si>
+    <t>Slavia Prag</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Eskisehirspor</t>
+  </si>
+  <si>
+    <t>San Severo</t>
+  </si>
+  <si>
+    <t>SKN St. P√∂lten</t>
+  </si>
+  <si>
+    <t>SV Kapfenberg</t>
+  </si>
+  <si>
+    <t>FC Prishtina</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Sepsi OSK</t>
+  </si>
+  <si>
+    <t>Cerezo Osaka</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Royal Mouscron</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw</t>
+  </si>
+  <si>
+    <t>Deportivo Lara</t>
+  </si>
+  <si>
+    <t>Central Coast</t>
+  </si>
+  <si>
+    <t>SC Paderborn</t>
+  </si>
+  <si>
+    <t>SC Kriens</t>
+  </si>
+  <si>
+    <t>Bnei Yehuda</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>FC Muri</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>SC Freiburg II</t>
+  </si>
+  <si>
+    <t>Luzern U18</t>
+  </si>
+  <si>
+    <t>AC Taverne</t>
+  </si>
+  <si>
+    <t>AC Le Havre</t>
+  </si>
+  <si>
+    <t>Eastern Sub.</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Livingston FC</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
+    <t>Y. Malatyaspor</t>
+  </si>
+  <si>
+    <t>Luzern U21</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>FK Sarajevo</t>
+  </si>
+  <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>FC Le Mans B</t>
+  </si>
+  <si>
+    <t>Ethnikos</t>
+  </si>
+  <si>
+    <t>Roter Stern</t>
+  </si>
+  <si>
+    <t>HNK Rijeka</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>FC Kreuzlingen</t>
+  </si>
+  <si>
+    <t>FC Basel</t>
+  </si>
+  <si>
+    <t>HJK Helsinki</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>NK Osijek</t>
+  </si>
+  <si>
+    <t>G. Bordeaux</t>
+  </si>
+  <si>
+    <t>Timbers</t>
+  </si>
+  <si>
+    <t>BSC Old Boys</t>
+  </si>
+  <si>
+    <t>Grasshopper Club Z√ºrich</t>
+  </si>
+  <si>
+    <t>Al-Jazira</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Dubai CSC</t>
+  </si>
+  <si>
+    <t>Ankarag√ºc√º</t>
+  </si>
+  <si>
+    <t>AC Ravecchia</t>
+  </si>
+  <si>
+    <t>KF Teuta</t>
+  </si>
+  <si>
+    <t>Chievo Verona</t>
+  </si>
+  <si>
+    <t>AC Mailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK Zadar </t>
+  </si>
+  <si>
+    <t>Ume√• FC</t>
+  </si>
+  <si>
+    <t>Kecskem√©ti TE</t>
+  </si>
+  <si>
+    <t>MFK Karvina</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Wolves U23</t>
+  </si>
+  <si>
+    <t>Al-Gharafa SC</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>AS Nancy</t>
+  </si>
+  <si>
+    <t>Dunajska Streda</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Aktobe</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>FC Santos</t>
+  </si>
+  <si>
+    <t>St. Gallen U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Dallas	</t>
+  </si>
+  <si>
+    <t>B. Jerusalem</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Toronto FC II</t>
+  </si>
+  <si>
+    <t>FC M√ºnsingen</t>
+  </si>
+  <si>
+    <t>US Arbedo</t>
+  </si>
+  <si>
+    <t>Neuch√¢tel Xamax FCS</t>
+  </si>
+  <si>
+    <t>1860 M√ºnchen</t>
+  </si>
+  <si>
+    <t>Herediano</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Lausanne-Sport</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>BSC YB U21</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>FC Chelsea</t>
+  </si>
+  <si>
+    <t>Ural</t>
+  </si>
+  <si>
+    <t>Coritiba FC</t>
+  </si>
+  <si>
+    <t>AFC Astra</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>FC Wacker</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>KF Feronikeli</t>
+  </si>
+  <si>
+    <t>Stade Nyonnais</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>NK Aluminij</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>D. Concepci√≥n</t>
+  </si>
+  <si>
+    <t>Ruzomberok</t>
+  </si>
+  <si>
+    <t>Chieti</t>
+  </si>
+  <si>
+    <t>Chelsea U23</t>
+  </si>
+  <si>
+    <t>Oldham Athletic</t>
+  </si>
+  <si>
+    <t>FC Porza</t>
+  </si>
+  <si>
+    <t>Radnicki Nis</t>
+  </si>
+  <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>KF Tirana</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Slavic</t>
+  </si>
+  <si>
+    <t>Anglo-Frisian</t>
+  </si>
+  <si>
+    <t>Scandinavian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Dutch</t>
   </si>
 </sst>
 </file>
@@ -636,19 +1633,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB4BB88-6B90-9344-9792-03764EB5F7C1}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -656,132 +1655,156 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -789,188 +1812,212 @@
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C17">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>69</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>71</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>72</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>73</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>74</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>75</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>76</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -978,4 +2025,1693 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C766C6-83F9-7942-8CF8-84463E747C64}">
+  <dimension ref="A1:C267"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>